--- a/data/trans_camb/P15_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_4-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,88</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,37</t>
+          <t>30,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,99</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,54</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,94</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,9</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,44</t>
+          <t>23,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 13,4</t>
+          <t>-19,31; 9,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 46,76</t>
+          <t>-1,26; 39,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,43; 51,52</t>
+          <t>8,96; 51,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -1,17</t>
+          <t>-19,4; 4,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 35,3</t>
+          <t>-1,45; 34,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 28,05</t>
+          <t>-1,05; 32,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 3,49</t>
+          <t>-14,68; 3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 36,08</t>
+          <t>5,76; 30,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 36,81</t>
+          <t>8,81; 36,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>-32,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>508,77%</t>
+          <t>195,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>562,8%</t>
+          <t>314,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-65,26%</t>
+          <t>-52,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>141,86%</t>
+          <t>129,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>115,74%</t>
+          <t>119,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-31,12%</t>
+          <t>-45,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>247,4%</t>
+          <t>151,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>252,57%</t>
+          <t>195,75%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,73; 533,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>107,22; 1806,72</t>
+          <t>-27,92; 1090,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167,04; 2270,68</t>
+          <t>26,6; 1562,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-92,33; 9,32</t>
+          <t>-92,16; 138,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,98; 385,84</t>
+          <t>-15,36; 522,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 335,4</t>
+          <t>-15,53; 559,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,25; 56,36</t>
+          <t>-85,22; 74,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>103,03; 544,53</t>
+          <t>25,88; 489,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>108,62; 545,95</t>
+          <t>41,29; 538,06</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>-18,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,8</t>
+          <t>23,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,33</t>
+          <t>29,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,7</t>
+          <t>27,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-12,97</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,78</t>
+          <t>26,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,28</t>
+          <t>17,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,98; -0,39</t>
+          <t>-36,3; -1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 40,7</t>
+          <t>-0,25; 50,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 33,37</t>
+          <t>-16,74; 30,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 3,69</t>
+          <t>-18,96; 0,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 37,48</t>
+          <t>13,99; 44,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,22; 38,2</t>
+          <t>10,92; 42,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -1,26</t>
+          <t>-22,92; -4,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 36,84</t>
+          <t>11,78; 43,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 30,72</t>
+          <t>3,12; 31,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-62,31%</t>
+          <t>-71,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>113,95%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78,37%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,77%</t>
+          <t>-70,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>313,59%</t>
+          <t>286,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>318,17%</t>
+          <t>271,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-55,11%</t>
+          <t>-70,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>173,22%</t>
+          <t>146,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>148,78%</t>
+          <t>94,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,31; 0,96</t>
+          <t>-93,45; 4,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 293,64</t>
+          <t>-1,63; 319,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 243,8</t>
+          <t>-43,14; 196,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-84,13; 110,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>111,51; 938,71</t>
+          <t>62,72; 893,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>112,06; 921,04</t>
+          <t>49,4; 807,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,76; -5,35</t>
+          <t>-90,51; -22,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,78; 375,72</t>
+          <t>47,38; 333,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,1; 289,86</t>
+          <t>11,53; 239,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>33,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,18</t>
+          <t>20,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,93</t>
+          <t>28,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,33</t>
+          <t>19,36</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,15</t>
+          <t>30,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 4,21</t>
+          <t>-15,46; 10,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 18,53</t>
+          <t>2,74; 33,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 33,99</t>
+          <t>16,53; 48,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 0,15</t>
+          <t>-14,37; 3,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 30,33</t>
+          <t>9,31; 32,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,33; 45,84</t>
+          <t>16,12; 40,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -0,31</t>
+          <t>-12,95; 3,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 22,07</t>
+          <t>9,75; 28,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,6; 36,61</t>
+          <t>19,92; 40,36</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-39,55%</t>
+          <t>-18,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>102,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>197,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-43,06%</t>
+          <t>-32,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>135,19%</t>
+          <t>120,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>229,33%</t>
+          <t>170,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-40,83%</t>
+          <t>-27,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>113,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>152,74%</t>
+          <t>181,8%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,02; 31,96</t>
+          <t>-64,83; 113,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 111,25</t>
+          <t>5,64; 310,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,28; 210,81</t>
+          <t>65,77; 482,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 8,5</t>
+          <t>-68,34; 36,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,52; 270,08</t>
+          <t>37,7; 257,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>125,34; 411,64</t>
+          <t>75,69; 337,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,83; 3,52</t>
+          <t>-59,51; 23,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,99; 149,22</t>
+          <t>41,37; 221,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,45; 251,83</t>
+          <t>91,23; 312,69</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,24</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,87</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,15</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-8,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,49</t>
+          <t>17,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 2,48</t>
+          <t>-18,93; 6,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 25,37</t>
+          <t>-2,14; 25,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 31,33</t>
+          <t>2,48; 31,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -1,44</t>
+          <t>-18,96; -0,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 27,88</t>
+          <t>6,48; 29,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,64; 34,13</t>
+          <t>5,77; 29,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -1,66</t>
+          <t>-15,82; -0,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,85; 23,76</t>
+          <t>6,58; 25,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 30,12</t>
+          <t>8,82; 27,62</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-33,63%</t>
+          <t>-31,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-52,72%</t>
+          <t>-54,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>125,59%</t>
+          <t>106,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>167,38%</t>
+          <t>101,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>78,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>126,7%</t>
+          <t>90,9%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,86; 19,22</t>
+          <t>-66,17; 42,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,48; 159,38</t>
+          <t>-10,46; 168,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,79; 191,12</t>
+          <t>7,5; 203,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-76,94; -6,5</t>
+          <t>-81,14; 0,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,29; 258,0</t>
+          <t>24,7; 244,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,99; 308,16</t>
+          <t>22,37; 229,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-63,77; -10,89</t>
+          <t>-66,36; 0,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,82; 160,71</t>
+          <t>25,92; 173,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>73,85; 208,47</t>
+          <t>36,23; 187,14</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,04</t>
+          <t>30,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>20,32</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>12,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20,55</t>
+          <t>20,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 0,72</t>
+          <t>-18,12; 3,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 19,79</t>
+          <t>-7,1; 19,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,4; 37,54</t>
+          <t>14,24; 46,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 3,13</t>
+          <t>-15,06; 9,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 23,01</t>
+          <t>5,5; 37,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,17; 25,18</t>
+          <t>-6,28; 23,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -0,35</t>
+          <t>-13,93; 3,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 18,53</t>
+          <t>1,17; 22,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,58; 28,56</t>
+          <t>10,17; 32,77</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-49,59%</t>
+          <t>-46,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>196,76%</t>
+          <t>187,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-42,72%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>100,76%</t>
+          <t>138,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>118,14%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-46,38%</t>
+          <t>-37,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>80,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>159,7%</t>
+          <t>133,75%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-79,68; 13,25</t>
+          <t>-84,13; 44,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 233,46</t>
+          <t>-33,58; 190,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>70,69; 435,93</t>
+          <t>59,66; 474,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,93; 54,3</t>
+          <t>-74,11; 176,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,41; 295,32</t>
+          <t>17,75; 472,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,96; 318,18</t>
+          <t>-30,94; 289,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-71,33; -0,75</t>
+          <t>-69,72; 36,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>23,22; 193,46</t>
+          <t>3,77; 214,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>72,96; 298,75</t>
+          <t>44,88; 336,18</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-9,62</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-8,84</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>15,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -0,71</t>
+          <t>-23,48; -0,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 17,98</t>
+          <t>-9,04; 22,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 22,69</t>
+          <t>0,62; 36,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -0,08</t>
+          <t>-19,44; 0,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 9,77</t>
+          <t>-12,13; 12,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 11,48</t>
+          <t>-2,99; 27,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -2,24</t>
+          <t>-16,81; -2,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 10,46</t>
+          <t>-6,79; 12,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 13,75</t>
+          <t>3,27; 25,77</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-64,71%</t>
+          <t>-80,75%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>161,15%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-73,19%</t>
+          <t>-79,96%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>115,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-68,49%</t>
+          <t>-80,38%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>137,33%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-93,12; 3,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 230,71</t>
+          <t>-63,25; 376,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 303,42</t>
+          <t>-9,58; 607,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 96,82</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-63,13; 240,31</t>
+          <t>-78,5; 282,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 240,6</t>
+          <t>-28,32; 578,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-89,22; -18,28</t>
+          <t>-100,0; -4,11</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 152,1</t>
+          <t>-42,81; 191,71</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 203,34</t>
+          <t>15,75; 416,93</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>14,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>21,6</t>
+          <t>22,5</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>18,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,91</t>
+          <t>19,74</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>21,35</t>
+          <t>21,18</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -2,77</t>
+          <t>-13,74; -2,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10,78; 21,22</t>
+          <t>7,24; 23,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16,57; 27,95</t>
+          <t>14,47; 29,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -3,29</t>
+          <t>-11,15; -2,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,53</t>
+          <t>12,74; 24,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,07; 25,97</t>
+          <t>14,11; 25,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -4,0</t>
+          <t>-11,13; -4,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,45</t>
+          <t>11,83; 21,61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,32; 24,91</t>
+          <t>16,47; 25,73</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-41,49%</t>
+          <t>-46,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>128,39%</t>
+          <t>124,15%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-50,88%</t>
+          <t>-48,57%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>135,95%</t>
+          <t>127,64%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>167,52%</t>
+          <t>136,75%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>-47,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>112,59%</t>
+          <t>102,78%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>147,09%</t>
+          <t>131,11%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,28; -17,97</t>
+          <t>-64,8; -17,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>56,99; 142,12</t>
+          <t>33,54; 153,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>84,57; 182,91</t>
+          <t>66,93; 196,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-66,28; -29,13</t>
+          <t>-66,72; -22,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>86,05; 202,01</t>
+          <t>69,49; 197,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>114,02; 244,76</t>
+          <t>81,21; 218,11</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-57,79; -29,39</t>
+          <t>-60,96; -31,26</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>80,81; 156,29</t>
+          <t>65,49; 151,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>108,94; 191,01</t>
+          <t>89,53; 182,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
